--- a/hiv-southafrica/hiv_southafrica_framework.xlsx
+++ b/hiv-southafrica/hiv_southafrica_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/hiv-southafrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFEBE3A-7961-BB49-9F36-2F52C18FB251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DF7D4-74A8-ED47-8683-3AE2C7F18089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -1497,9 +1497,6 @@
     <t>num_acq</t>
   </si>
   <si>
-    <t>Estimated number of new HIV infections annually</t>
-  </si>
-  <si>
     <t>Acquisition rate</t>
   </si>
   <si>
@@ -1681,6 +1678,111 @@
   </si>
   <si>
     <t>cd4_rate</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths</t>
+  </si>
+  <si>
+    <t>Number of AIDS deaths</t>
+  </si>
+  <si>
+    <t>Number of AIDS deaths (not on treatment)</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_tx</t>
+  </si>
+  <si>
+    <t>Number of AIDS deaths (on treatment)</t>
+  </si>
+  <si>
+    <t>(undx+nocd4+lostafterdx+cd4+lostaftercd4+linked+lostfrompreart+lostfromart)*death_hiv</t>
+  </si>
+  <si>
+    <t>tx*death_hivtx</t>
+  </si>
+  <si>
+    <t>Number of AIDS deaths (on unsuppressive treatment)</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_vs</t>
+  </si>
+  <si>
+    <t>Number of AIDS deaths (on suppressive treatment)</t>
+  </si>
+  <si>
+    <t>vs*death_hivvs</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_alltx</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_tx+num_hiv_deaths_vs</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_notx</t>
+  </si>
+  <si>
+    <t>num_hiv_deaths_notx+num_hiv_deaths_alltx</t>
+  </si>
+  <si>
+    <t>num_notx</t>
+  </si>
+  <si>
+    <t>Number of people not on treatment</t>
+  </si>
+  <si>
+    <t>undx+nocd4+lostafterdx+cd4+lostaftercd4+linked+lostfrompreart+lostfromart</t>
+  </si>
+  <si>
+    <t>trans_notx</t>
+  </si>
+  <si>
+    <t>transred_tx</t>
+  </si>
+  <si>
+    <t>transred_vs</t>
+  </si>
+  <si>
+    <t>Reduction in transmissibility from being on virally suppressive treatment</t>
+  </si>
+  <si>
+    <t>Reduction in transmissibility from being on treatment, not virally suppressed</t>
+  </si>
+  <si>
+    <t>Life expectancy with untreated HIV</t>
+  </si>
+  <si>
+    <t>num_acq_notx</t>
+  </si>
+  <si>
+    <t>num_acq_tx</t>
+  </si>
+  <si>
+    <t>num_acq_vs</t>
+  </si>
+  <si>
+    <t>Annual number of new HIV infections from people with untreated HIV</t>
+  </si>
+  <si>
+    <t>Annual number of new HIV infections from people with treated HIV (not vs)</t>
+  </si>
+  <si>
+    <t>Annual number of new HIV infections from people with treated HIV (vs)</t>
+  </si>
+  <si>
+    <t>Annual number of new HIV infections</t>
+  </si>
+  <si>
+    <t>num_notx/trans_notx</t>
+  </si>
+  <si>
+    <t>(tx-vs)/(trans_notx/(1-transred_tx))</t>
+  </si>
+  <si>
+    <t>vs/(trans_notx/(1-transred_vs))</t>
+  </si>
+  <si>
+    <t>num_acq_notx+num_acq_tx+num_acq_vs</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,6 +1894,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2679,7 +2784,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2706,7 +2811,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>29</v>
@@ -2766,10 +2871,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>33</v>
@@ -2784,10 +2889,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>33</v>
@@ -2802,10 +2907,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>33</v>
@@ -2820,10 +2925,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
@@ -2856,10 +2961,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -2877,7 +2982,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -2892,10 +2997,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>33</v>
@@ -2995,7 +3100,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3096,7 +3201,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3121,7 +3226,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3148,10 +3253,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3171,7 +3276,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3200,14 +3305,14 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -3229,7 +3334,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -3258,10 +3363,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3285,7 +3390,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -3314,7 +3419,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>52</v>
@@ -3341,7 +3446,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3370,7 +3475,7 @@
         <v>54</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
@@ -3530,7 +3635,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3567,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -3589,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -3610,7 +3715,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -3625,13 +3730,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3652,7 +3757,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -3796,21 +3901,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -3869,207 +3974,211 @@
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12.7</v>
+      </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.96</v>
+      </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
@@ -4079,30 +4188,31 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>23</v>
@@ -4110,13 +4220,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
@@ -4125,48 +4235,46 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
@@ -4185,42 +4293,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.16</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4">
         <v>0</v>
       </c>
@@ -4237,52 +4343,46 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5.2999999999999999E-2</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4">
         <v>0</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="8">
-        <f>D18*48.78%</f>
-        <v>2.5853399999999999E-2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>23</v>
@@ -4290,26 +4390,24 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="8">
-        <f>D18*23%</f>
-        <v>1.2189999999999999E-2</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>23</v>
@@ -4317,59 +4415,326 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4">
         <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8">
+        <f>D25*48.78%</f>
+        <v>2.5853399999999999E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D25*23%</f>
+        <v>1.2189999999999999E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B7:B10">
     <cfRule type="expression" dxfId="17" priority="33">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
+      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
@@ -4377,94 +4742,94 @@
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B11">
     <cfRule type="expression" dxfId="15" priority="30">
-      <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
+      <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="14" priority="31">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I11&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="13" priority="28">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I13&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="12" priority="25">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I14&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B13">
     <cfRule type="expression" dxfId="11" priority="27">
-      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
+      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" dxfId="10" priority="23">
-      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
+      <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="9" priority="22">
-      <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
+      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18 B21">
+  <conditionalFormatting sqref="B25 B28">
     <cfRule type="expression" dxfId="8" priority="21">
+      <formula>AND(A25&lt;&gt;"",NOT(B25&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="7" priority="20">
+      <formula>AND(A26&lt;&gt;"",NOT(B26&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="6" priority="18">
+      <formula>AND(A27&lt;&gt;"",NOT(B27&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND(A16&lt;&gt;"",NOT(B16&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(A17&lt;&gt;"",NOT(B17&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(A18&lt;&gt;"",NOT(B18&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="7" priority="20">
-      <formula>AND(A19&lt;&gt;"",NOT(B19&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(A21&lt;&gt;"",NOT(B21&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(A20&lt;&gt;"",NOT(B20&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
+      <formula>AND(A22&lt;&gt;"",NOT(B22&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25 C4:C21 C23:C26" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C33 C11:C28 C4:C6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H23:H26 H4:H17" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H11:H24 H33" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H18:H21" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H25:H28" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4490,10 +4855,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4549,10 +4914,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4576,10 +4941,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">

--- a/hiv-southafrica/hiv_southafrica_framework.xlsx
+++ b/hiv-southafrica/hiv_southafrica_framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/cascade-analyses/hiv-southafrica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DF7D4-74A8-ED47-8683-3AE2C7F18089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0430FC7-B5F1-EC46-B145-8BD36EB260A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1790,7 +1790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1863,7 +1863,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1887,7 +1887,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3903,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="117" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4003,9 +4003,6 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12.7</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
